--- a/Inputs/Loading.xlsx
+++ b/Inputs/Loading.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\01 - Reserving\PGG\PGGenPython\RWmyPGG\myPGG1\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A00848-D196-4A5E-AFC5-AFD76AFF4BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3558BF9A-FEE4-43C9-8665-C53B9C3A0954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loading" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -160,52 +168,52 @@
     <t>A5</t>
   </si>
   <si>
-    <t>Alpha 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 2 </t>
-  </si>
-  <si>
-    <t>Alpha 3</t>
-  </si>
-  <si>
-    <t>Beta 1</t>
-  </si>
-  <si>
-    <t>Beta 2</t>
-  </si>
-  <si>
-    <t>Beta 3</t>
-  </si>
-  <si>
     <t>Zillmer</t>
   </si>
   <si>
-    <t>Beta 4</t>
-  </si>
-  <si>
-    <t>Beta1 Age53</t>
-  </si>
-  <si>
-    <t>Beta 1 Age70</t>
-  </si>
-  <si>
-    <t>Beta3 Age53</t>
-  </si>
-  <si>
-    <t>Beta 3 Age70</t>
-  </si>
-  <si>
-    <t>Beta4 Age53</t>
-  </si>
-  <si>
-    <t>Beta 4 Age70</t>
-  </si>
-  <si>
-    <t>Beta 3 head 2</t>
-  </si>
-  <si>
-    <t>Beta 4 head 2</t>
+    <t>Alpha1</t>
+  </si>
+  <si>
+    <t>Alpha2</t>
+  </si>
+  <si>
+    <t>Alpha3</t>
+  </si>
+  <si>
+    <t>Beta1</t>
+  </si>
+  <si>
+    <t>Beta2</t>
+  </si>
+  <si>
+    <t>Beta3</t>
+  </si>
+  <si>
+    <t>Beta4</t>
+  </si>
+  <si>
+    <t>Beta1Age53</t>
+  </si>
+  <si>
+    <t>Beta3Age53</t>
+  </si>
+  <si>
+    <t>Beta4Age53</t>
+  </si>
+  <si>
+    <t>Beta3head2</t>
+  </si>
+  <si>
+    <t>Beta4head2</t>
+  </si>
+  <si>
+    <t>Beta1Age70</t>
+  </si>
+  <si>
+    <t>Beta3Age70</t>
+  </si>
+  <si>
+    <t>Beta4Age70</t>
   </si>
 </sst>
 </file>
@@ -292,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -315,11 +323,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -336,6 +355,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,24 +638,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="17" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -644,22 +666,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>32</v>
@@ -668,28 +690,28 @@
         <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -717,6 +739,9 @@
       <c r="O2" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="R2">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -743,6 +768,9 @@
       <c r="O3" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="R3">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -769,6 +797,9 @@
       <c r="O4" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="R4">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -795,6 +826,9 @@
       <c r="O5" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="R5">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -821,6 +855,9 @@
       <c r="O6" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="R6">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -847,6 +884,9 @@
       <c r="O7" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="R7">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -873,6 +913,9 @@
       <c r="O8" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="R8">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -887,6 +930,9 @@
       <c r="G9">
         <v>4.2500000000000003E-3</v>
       </c>
+      <c r="R9">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -901,6 +947,9 @@
       <c r="G10">
         <v>4.2500000000000003E-3</v>
       </c>
+      <c r="R10">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -915,6 +964,9 @@
       <c r="G11">
         <v>4.2500000000000003E-3</v>
       </c>
+      <c r="R11">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -929,6 +981,9 @@
       <c r="G12">
         <v>4.2500000000000003E-3</v>
       </c>
+      <c r="R12">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -943,6 +998,9 @@
       <c r="G13">
         <v>3.2499999999999999E-3</v>
       </c>
+      <c r="R13">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -957,6 +1015,9 @@
       <c r="G14">
         <v>3.2499999999999999E-3</v>
       </c>
+      <c r="R14">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -971,6 +1032,9 @@
       <c r="G15">
         <v>3.2499999999999999E-3</v>
       </c>
+      <c r="R15">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -985,8 +1049,11 @@
       <c r="G16">
         <v>3.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -999,8 +1066,11 @@
       <c r="G17">
         <v>3.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1013,8 +1083,11 @@
       <c r="G18">
         <v>3.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1027,8 +1100,11 @@
       <c r="G19">
         <v>3.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -1041,8 +1117,11 @@
       <c r="G20">
         <v>3.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -1062,7 +1141,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -1082,7 +1161,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -1102,7 +1181,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -1122,7 +1201,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -1142,7 +1221,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -1162,7 +1241,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -1182,7 +1261,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -1196,7 +1275,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>6</v>
       </c>
@@ -1210,7 +1289,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>6</v>
       </c>
@@ -1224,7 +1303,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -1238,7 +1317,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -1252,7 +1331,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -1266,7 +1345,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>6</v>
       </c>
@@ -1280,7 +1359,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>7</v>
       </c>
@@ -1294,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>8</v>
       </c>
@@ -1305,7 +1384,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>8</v>
       </c>
@@ -1316,7 +1395,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>9</v>
       </c>
@@ -1327,7 +1406,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>9</v>
       </c>
@@ -1338,7 +1417,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>10</v>
       </c>
@@ -1351,8 +1430,11 @@
       <c r="G40">
         <v>3.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>10</v>
       </c>
@@ -1365,8 +1447,11 @@
       <c r="G41">
         <v>3.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>10</v>
       </c>
@@ -1379,8 +1464,11 @@
       <c r="G42">
         <v>3.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>11</v>
       </c>
@@ -1414,8 +1502,11 @@
       <c r="O43" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>11</v>
       </c>
@@ -1449,8 +1540,11 @@
       <c r="O44" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>11</v>
       </c>
@@ -1484,8 +1578,11 @@
       <c r="O45" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>11</v>
       </c>
@@ -1519,8 +1616,11 @@
       <c r="O46" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>11</v>
       </c>
@@ -1554,8 +1654,11 @@
       <c r="O47" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>25</v>
       </c>
@@ -1653,6 +1756,12 @@
       <c r="C56">
         <v>0.45</v>
       </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
       <c r="F56">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1667,6 +1776,12 @@
       <c r="C57">
         <v>0.45</v>
       </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
       <c r="F57">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1681,6 +1796,12 @@
       <c r="C58">
         <v>0.45</v>
       </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
       <c r="F58">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1695,6 +1816,12 @@
       <c r="C59">
         <v>0.45</v>
       </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
       <c r="F59">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1709,6 +1836,12 @@
       <c r="C60">
         <v>0.45</v>
       </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
       <c r="F60">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1723,6 +1856,12 @@
       <c r="C61">
         <v>0.45</v>
       </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
       <c r="F61">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1737,6 +1876,12 @@
       <c r="C62">
         <v>0.45</v>
       </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
       <c r="F62">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1751,6 +1896,12 @@
       <c r="C63">
         <v>0.45</v>
       </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
       <c r="F63">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1765,6 +1916,12 @@
       <c r="C64">
         <v>0.45</v>
       </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
       <c r="F64">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1779,6 +1936,12 @@
       <c r="C65">
         <v>0.45</v>
       </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
       <c r="F65">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1793,6 +1956,12 @@
       <c r="C66">
         <v>0.45</v>
       </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
       <c r="F66">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1807,6 +1976,12 @@
       <c r="C67">
         <v>0.45</v>
       </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
       <c r="F67">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1821,6 +1996,12 @@
       <c r="C68">
         <v>0.45</v>
       </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
       <c r="F68">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1835,6 +2016,12 @@
       <c r="C69">
         <v>0.45</v>
       </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
       <c r="F69">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1849,6 +2036,12 @@
       <c r="C70">
         <v>0</v>
       </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
       <c r="F70">
         <v>0</v>
       </c>
@@ -1863,6 +2056,12 @@
       <c r="C71">
         <v>0</v>
       </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
       <c r="F71">
         <v>0</v>
       </c>
@@ -1877,6 +2076,12 @@
       <c r="C72">
         <v>0</v>
       </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
       <c r="F72">
         <v>0</v>
       </c>
@@ -1891,6 +2096,12 @@
       <c r="C73">
         <v>0</v>
       </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
       <c r="F73">
         <v>0</v>
       </c>
@@ -1985,6 +2196,12 @@
       <c r="C78">
         <v>0</v>
       </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
       <c r="F78">
         <v>0.12</v>
       </c>
@@ -1999,6 +2216,12 @@
       <c r="C79">
         <v>0</v>
       </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
       <c r="F79">
         <v>0.12</v>
       </c>
@@ -2013,6 +2236,12 @@
       <c r="C80">
         <v>0</v>
       </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
       <c r="F80">
         <v>0.12</v>
       </c>
@@ -2027,6 +2256,12 @@
       <c r="C81">
         <v>0</v>
       </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
       <c r="F81">
         <v>0.12</v>
       </c>
@@ -2052,6 +2287,9 @@
       <c r="C83" s="4">
         <v>0.25</v>
       </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/Loading.xlsx
+++ b/Inputs/Loading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\01 - Reserving\PGG\PGGenPython\RWmyPGG\myPGG1\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3558BF9A-FEE4-43C9-8665-C53B9C3A0954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189016E0-0622-4DAE-B155-C54E1A75EDB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <author>Robin Wengi</author>
   </authors>
   <commentList>
-    <comment ref="C82" authorId="0" shapeId="0" xr:uid="{8C0CA114-808B-4143-8FB8-0AB2FB3EF429}">
+    <comment ref="C88" authorId="0" shapeId="0" xr:uid="{DB2AF438-C725-4880-855A-12FAFA798360}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="C83" authorId="0" shapeId="0" xr:uid="{A39C94B0-3956-4C6D-976D-EA2271FCE628}">
+    <comment ref="C89" authorId="0" shapeId="0" xr:uid="{8C0CA114-808B-4143-8FB8-0AB2FB3EF429}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Robin Wengi
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.25 vrai valeure</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C90" authorId="0" shapeId="0" xr:uid="{F1B7B666-23A3-47ED-B4FF-2174C5B3FC47}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Robin Wengi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0.32 vrai valeure</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C91" authorId="0" shapeId="0" xr:uid="{A39C94B0-3956-4C6D-976D-EA2271FCE628}">
       <text>
         <r>
           <rPr>
@@ -91,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
   <si>
     <t>A</t>
   </si>
@@ -214,6 +262,24 @@
   </si>
   <si>
     <t>Beta4Age70</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
   </si>
 </sst>
 </file>
@@ -300,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -323,22 +389,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -355,9 +410,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,218 +1712,326 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
+        <v>11</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H48" s="5">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I48" s="6">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J48" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K48" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L48" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M48" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N48" s="6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O48" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R48">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>11</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H49" s="5">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I49" s="6">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J49" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K49" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L49" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M49" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N49" s="6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O49" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R49">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>11</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H50" s="5">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I50" s="6">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J50" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K50" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L50" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M50" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N50" s="6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O50" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R50">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>11</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H51" s="5">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I51" s="6">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J51" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K51" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L51" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M51" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N51" s="6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O51" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R51">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>11</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H52" s="5">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I52" s="6">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J52" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K52" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L52" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M52" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N52" s="6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O52" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R52">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>11</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H53" s="5">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I53" s="6">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J53" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K53" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L53" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M53" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N53" s="6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O53" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R53">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>25</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>25</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>25</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>25</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>25</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>26</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>26</v>
-      </c>
       <c r="B54" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0.25</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>0.25</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>0.45</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C57">
-        <v>0.45</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C58">
-        <v>0.45</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C59">
-        <v>0.45</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C60">
-        <v>0.45</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>0.45</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>28</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0.45</v>
@@ -1886,12 +2046,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>28</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>0.45</v>
@@ -1906,12 +2066,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>0.45</v>
@@ -1928,10 +2088,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <v>0.45</v>
@@ -1948,10 +2108,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C66">
         <v>0.45</v>
@@ -1968,10 +2128,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67">
         <v>0.45</v>
@@ -1988,10 +2148,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C68">
         <v>0.45</v>
@@ -2008,10 +2168,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C69">
         <v>0.45</v>
@@ -2028,13 +2188,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2043,18 +2203,18 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2063,18 +2223,18 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2083,18 +2243,18 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2103,21 +2263,21 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="D74">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2128,67 +2288,67 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>0.44500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="D75">
-        <v>0.39500000000000002</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0.39500000000000002</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>5.5E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C76">
-        <v>0.44500000000000001</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>0.39500000000000002</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>0.39500000000000002</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0.44500000000000001</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0.39500000000000002</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>0.39500000000000002</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>3</v>
@@ -2203,15 +2363,15 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2223,73 +2383,223 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="F81">
-        <v>0.12</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D82">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E82">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="F82">
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
+        <v>33</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D83">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E83">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="F83">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>36</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>36</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>36</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>36</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>58</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>58</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>70</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="4">
+      <c r="B90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="10"/>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>70</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>12</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0.72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
